--- a/miago/docs/data/mapping table.xlsx
+++ b/miago/docs/data/mapping table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27585" windowHeight="10785" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27585" windowHeight="10785" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="mapping the PR id with target" sheetId="1" r:id="rId1"/>
@@ -36880,7 +36880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="A149" sqref="A149:XFD149"/>
     </sheetView>
   </sheetViews>
@@ -46437,8 +46437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
